--- a/election_votar_data/LOHAGARA/PADUA/152576/152576_com_1978_female_without_photo_111_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/PADUA/152576/152576_com_1978_female_without_photo_111_2025-11-24.pdf.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -65793,7 +65793,7 @@
       </c>
       <c r="F1556" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী জন্ম তারিখ: ০১/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="G1556" s="3" t="inlineStr">
